--- a/outputFile/majtest2_suss.xlsx
+++ b/outputFile/majtest2_suss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>m_single</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>m_comb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>delnear</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>d_single</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>d_comb</t>
         </is>
       </c>
     </row>
@@ -463,7 +483,21 @@
         <v>0.6538461538461537</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.7999999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -479,7 +513,21 @@
         <v>0.7575757575757577</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.8051948051948051</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -495,7 +543,21 @@
         <v>0.7407407407407406</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.8125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -511,7 +573,21 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.7368421052631577</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -527,7 +603,21 @@
         <v>0.6</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.6363636363636364</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -543,7 +633,21 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.6122448979591837</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -559,7 +663,21 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.7555555555555556</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -575,7 +693,21 @@
         <v>0.6153846153846155</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.7727272727272727</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -591,7 +723,21 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.8076923076923077</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -607,7 +753,21 @@
         <v>0.5846153846153845</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.7123287671232876</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -623,7 +783,21 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.5614035087719298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -639,7 +813,21 @@
         <v>0.6249999999999999</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.6249999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -655,7 +843,21 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.6206896551724138</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -671,7 +873,21 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -687,7 +903,21 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.5977011494252873</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -703,7 +933,21 @@
         <v>0.6923076923076924</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.7857142857142858</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -719,7 +963,21 @@
         <v>0.6896551724137931</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.8749999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -735,7 +993,21 @@
         <v>0.6037735849056604</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.7241379310344828</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -751,7 +1023,21 @@
         <v>0.6902654867256638</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.7244094488188976</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -767,7 +1053,21 @@
         <v>0.5811965811965812</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.6880000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -783,7 +1083,21 @@
         <v>0.6268656716417911</v>
       </c>
       <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.6060606060606061</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
   </sheetData>
